--- a/CashFlow/ES_cashflow.xlsx
+++ b/CashFlow/ES_cashflow.xlsx
@@ -744,19 +744,19 @@
         </is>
       </c>
       <c r="B6" s="0" t="n">
-        <v>639494000.0</v>
+        <v>287102000.0</v>
       </c>
       <c r="C6" s="0" t="n">
-        <v>911000000.0</v>
+        <v>-21002000.0</v>
       </c>
       <c r="D6" s="0" t="n">
-        <v>667112000.0</v>
+        <v>-12660000.0</v>
       </c>
       <c r="E6" s="0" t="n">
-        <v>594093000.0</v>
+        <v>-20038000.0</v>
       </c>
       <c r="F6" s="0" t="n">
-        <v>269030000.0</v>
+        <v>-8074000.0</v>
       </c>
       <c r="G6" s="0" t="n">
         <v>-11503000.0</v>
@@ -994,10 +994,10 @@
         </is>
       </c>
       <c r="B8" s="0" t="n">
-        <v>122567000.0</v>
+        <v>4459000000.0</v>
       </c>
       <c r="C8" s="0" t="n">
-        <v>51187000.0</v>
+        <v>4236000000.0</v>
       </c>
       <c r="D8" s="0" t="inlineStr">
         <is>
